--- a/biology/Biochimie/2-Lysophosphatidylcholine/2-Lysophosphatidylcholine.xlsx
+++ b/biology/Biochimie/2-Lysophosphatidylcholine/2-Lysophosphatidylcholine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une 2-lysophosphatidylcholine (2-lysoPC), généralement appelée simplement lysophosphatidylcholine (LPC) ou lysolécithine, est une biomolécule dérivée d'une phosphatidylcholine par hydrolyse d'un résidu d'acide gras en position 2 sur le glycérol. Cette hydrolyse est généralement le fait d'une phospholipase A2 – EC 3.1.1.4 :
 Les lysophosphatidylcholines sont des constituants mineurs des membranes cellulaires (moins de 3 % des phospholipides membranaires) et du plasma sanguin (de 8 à 12 %). En milieu physiologique, les 2-lysophosphatidylcholines sont en équilibre avec les 1-lysophosphatidylcholines correspondantes à raison de 90 % de 2-lysoPC et 10 % de 1-lysoPC.
